--- a/toolkit/outputs/3-ahuAnomaly/ahu_anomaly_summary.xlsx
+++ b/toolkit/outputs/3-ahuAnomaly/ahu_anomaly_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>dtCc</t>
   </si>
@@ -29,7 +29,7 @@
     <t>AHU</t>
   </si>
   <si>
-    <t>AHU Health Index</t>
+    <t>AHU Health Index (%)</t>
   </si>
   <si>
     <t>Cooling coil</t>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Stuck</t>
+  </si>
+  <si>
+    <t>Low outdoor air</t>
   </si>
   <si>
     <t>Check mode of operation logic</t>
@@ -445,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-16.66909362889434</v>
+        <v>-15.90307908750653</v>
       </c>
       <c r="C2">
-        <v>-3.477793226385289</v>
+        <v>-2.511870820920659</v>
       </c>
       <c r="D2">
-        <v>0.5012086599761757</v>
+        <v>0.4928514705438788</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -459,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-12.21992876897378</v>
+        <v>-12.25942311130128</v>
       </c>
       <c r="C3">
-        <v>1.758401359396444</v>
+        <v>8.550331952986371</v>
       </c>
       <c r="D3">
-        <v>0.3073788287146095</v>
+        <v>0.252985159787625</v>
       </c>
     </row>
   </sheetData>
@@ -530,10 +533,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -544,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -556,13 +559,13 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
